--- a/unregelmäßigen.xlsx
+++ b/unregelmäßigen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjosburn/Documents/programming/unregelmäßigen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD047C15-CC9B-A541-8639-80DF41907CD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F0707F77-BB5B-284F-8A65-FF6D7C8A2FFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19180" xr2:uid="{710EEC1F-5CAF-FD45-B6F6-D73C64F478F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="141">
   <si>
     <t>Infinitive</t>
   </si>
@@ -379,6 +379,75 @@
   </si>
   <si>
     <t>(Nom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empfehlen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erlöschen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erschrecken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erwägen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">essen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fahren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fangen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fechten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">finden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">flechten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fliegen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fliehen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fließen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fressen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gären </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebären </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gedeihen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gehen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelten </t>
   </si>
 </sst>
 </file>
@@ -781,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CD7F35-E130-0D47-ADD6-06C9BA6F2715}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1538,6 +1607,121 @@
         <v>112</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
